--- a/Data/excel_files/ClayFlower.xlsx
+++ b/Data/excel_files/ClayFlower.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonhendrickson/Documents/Github_Projects/Meadowfoam_WhitetipClover_Phenology/Data/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{577596D7-A913-0342-A20B-1CC685BBB735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07E8D7-EA50-C34A-85F5-2114965CD235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClayFlower" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1159,16 +1159,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1784"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1784"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1403,12 +1403,8 @@
       <c r="S4">
         <v>15.8</v>
       </c>
-      <c r="T4">
-        <f>17.6-14.6</f>
-        <v>3.0000000000000018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1466,12 +1462,8 @@
       <c r="S5">
         <v>16.399999999999999</v>
       </c>
-      <c r="T5">
-        <f>3/5</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1530,7 +1522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1581,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1640,7 @@
         <v>18.36</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1699,7 @@
         <v>19.12</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1766,7 +1758,7 @@
         <v>19.88</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1817,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1884,7 +1876,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +1994,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2061,7 +2053,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -106433,7 +106425,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T1787">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S1787">
     <sortCondition ref="A2:A1787"/>
     <sortCondition ref="D2:D1787"/>
     <sortCondition ref="B2:B1787"/>
@@ -106445,10 +106437,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
